--- a/database/BD Productos Conciliaciones V1.xlsx
+++ b/database/BD Productos Conciliaciones V1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ganasa-my.sharepoint.com/personal/alejandra_olarte_gruporeditos_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aprendiz.gestion\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="8_{3DF8B462-382A-4F85-A736-040C1EFA2F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77AB619F-E2D4-4986-B0A6-EEF9B22D1A7A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{699F6748-0472-463E-86F5-74565B3BA91F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCTOS" sheetId="1" r:id="rId1"/>
@@ -38,12 +37,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Alejandra Olarte Morales</author>
   </authors>
   <commentList>
-    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{C57D1B65-94A6-4018-B95B-A4C1D0C3A01C}">
+    <comment ref="B13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -72,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="197">
   <si>
     <t>AUXILIAR</t>
   </si>
@@ -660,31 +659,16 @@
     <t>FONDO DE EMPLEADOS PARA EL FUTURO FEMFUTURO</t>
   </si>
   <si>
-    <t>PAGO GIROS</t>
-  </si>
-  <si>
     <t>MARIA ALEJANDRA</t>
   </si>
   <si>
     <t>COMFAMA</t>
-  </si>
-  <si>
-    <t>RETIROS BET PLAY</t>
-  </si>
-  <si>
-    <t>CORREDOR EMPRESARIAL</t>
-  </si>
-  <si>
-    <t>OKI</t>
-  </si>
-  <si>
-    <t>GRUPO RÉDITOS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1126,15 +1110,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D8AE0CA-22EA-4881-A04C-4FA30127A7FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C116" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C200" activePane="bottomRight" state="frozen"/>
       <selection activeCell="BM86" sqref="BM86"/>
       <selection pane="topRight" activeCell="BM86" sqref="BM86"/>
       <selection pane="bottomLeft" activeCell="BM86" sqref="BM86"/>
-      <selection pane="bottomRight" activeCell="D122" sqref="D122"/>
+      <selection pane="bottomRight" activeCell="D128" sqref="D128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2254,7 +2238,7 @@
     </row>
     <row r="80" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B80" s="8" t="s">
         <v>38</v>
@@ -2263,7 +2247,7 @@
         <v>890900842</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2757,49 +2741,25 @@
       </c>
     </row>
     <row r="116" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B116" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="C116" s="9">
-        <v>900327256</v>
-      </c>
-      <c r="D116" s="8" t="s">
-        <v>143</v>
-      </c>
+      <c r="A116" s="4"/>
+      <c r="B116" s="8"/>
+      <c r="C116" s="9"/>
+      <c r="D116" s="8"/>
     </row>
     <row r="117" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="B117" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="C117" s="9">
-        <v>900243000</v>
-      </c>
-      <c r="D117" s="8" t="s">
-        <v>199</v>
-      </c>
+      <c r="A117" s="4"/>
+      <c r="B117" s="8"/>
+      <c r="C117" s="9"/>
+      <c r="D117" s="8"/>
     </row>
     <row r="118" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="B118" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="C118" s="9">
-        <v>900081559</v>
-      </c>
-      <c r="D118" s="8" t="s">
-        <v>201</v>
-      </c>
+      <c r="A118" s="4"/>
+      <c r="B118" s="8"/>
+      <c r="C118" s="9"/>
+      <c r="D118" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C118" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
+  <autoFilter ref="A1:C118"/>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
@@ -2810,6 +2770,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B5008BC0D4F05F4B8CA802D20005DE17" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="4260255beb1a677ab553b131d1b0b2be">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99a17157-8f43-45b9-8bf4-a7366051f96b" xmlns:ns3="da21ce91-1f21-4cd9-bdf4-60ab3a7844c1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0bff55202644ed78feea75623e477b3b" ns2:_="" ns3:_="">
     <xsd:import namespace="99a17157-8f43-45b9-8bf4-a7366051f96b"/>
@@ -3012,29 +2987,38 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB1D5F95-3FAF-4E87-8B9B-6E1F0D04878B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{560172AA-522F-4244-98B2-3FE1B2E3B14D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AD7BB90-70C6-4AE1-8BBB-BA9494C1CDA1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AD7BB90-70C6-4AE1-8BBB-BA9494C1CDA1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{560172AA-522F-4244-98B2-3FE1B2E3B14D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB1D5F95-3FAF-4E87-8B9B-6E1F0D04878B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="99a17157-8f43-45b9-8bf4-a7366051f96b"/>
+    <ds:schemaRef ds:uri="da21ce91-1f21-4cd9-bdf4-60ab3a7844c1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>